--- a/Tabela za vodjenja taskova za test projekat.xlsx
+++ b/Tabela za vodjenja taskova za test projekat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\EstimationPractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\SchEstimationPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Naziv user storija</t>
   </si>
@@ -189,13 +189,16 @@
     <t>usecase impl (front-end)</t>
   </si>
   <si>
-    <t xml:space="preserve"> samo code                  1240</t>
-  </si>
-  <si>
     <t>admin rola?</t>
   </si>
   <si>
-    <t xml:space="preserve"> sa pred pocetkom    1540</t>
+    <t>testovi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> samo code                  1330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sa pred pocetkom    1630</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -955,23 +958,31 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>40</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela za vodjenja taskova za test projekat.xlsx
+++ b/Tabela za vodjenja taskova za test projekat.xlsx
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
